--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_3_32.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_3_32.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2944897.146975805</v>
+        <v>2943009.565459403</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800621</v>
+        <v>2264668.837800618</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.493767343</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -665,16 +665,16 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>270.6226856612333</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -704,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -719,10 +719,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>326.2097809358202</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -829,10 +829,10 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -859,16 +859,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>27.37301815329025</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>91.82580793753503</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -899,7 +899,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -914,7 +914,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,28 +941,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>14.01032806733598</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>174.1404107077194</v>
       </c>
     </row>
     <row r="6">
@@ -1105,22 +1105,22 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>155.886038567534</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>223.1498336210771</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1139,19 +1139,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>321.2644881507949</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,16 +1178,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481177</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>194.9730522231939</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.4222199825082</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229335</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1300,7 +1300,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1342,19 +1342,19 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>155.8860385675336</v>
       </c>
       <c r="W10" t="n">
-        <v>129.0666178516128</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1528,16 +1528,16 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1576,16 +1576,16 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>183.4653217847132</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>70.09706474908168</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1625,7 +1625,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,10 +1762,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1780,7 +1780,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,19 +1810,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>47.27820527287669</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>139.8205130728556</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1895,7 +1895,7 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U17" t="n">
         <v>251.078595249801</v>
@@ -2005,10 +2005,10 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>58.19095390327357</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2047,16 +2047,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>93.87916681139828</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2068,7 +2068,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2099,7 +2099,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>183.1796758466996</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
@@ -2302,7 +2302,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>31.13654107019667</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2482,7 +2482,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2527,19 +2527,19 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>206.806426921486</v>
+        <v>221.5475610583893</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985775</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>137.125867685468</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2573,7 +2573,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2719,7 +2719,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2761,25 +2761,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>203.8435192151919</v>
+        <v>286.2373523985774</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>48.52367933248025</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2804,13 +2804,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896903</v>
       </c>
       <c r="H29" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,22 +2947,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>124.6287235533802</v>
+        <v>124.62872355338</v>
       </c>
       <c r="C31" t="n">
-        <v>112.0435644700707</v>
+        <v>112.0435644700706</v>
       </c>
       <c r="D31" t="n">
-        <v>24.32760278609123</v>
+        <v>93.4122163896551</v>
       </c>
       <c r="E31" t="n">
-        <v>91.23070601801204</v>
+        <v>91.23070601801192</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>90.21779139437399</v>
       </c>
       <c r="G31" t="n">
-        <v>111.2903118348205</v>
+        <v>111.2903118348203</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.76109577523567</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>142.7175533550461</v>
+        <v>142.717553355046</v>
       </c>
       <c r="T31" t="n">
-        <v>166.3443044298321</v>
+        <v>166.344304429832</v>
       </c>
       <c r="U31" t="n">
-        <v>231.0340957700202</v>
+        <v>231.0340957700201</v>
       </c>
       <c r="V31" t="n">
-        <v>196.9343866952709</v>
+        <v>196.9343866952707</v>
       </c>
       <c r="W31" t="n">
-        <v>231.3197417080339</v>
+        <v>231.3197417080337</v>
       </c>
       <c r="X31" t="n">
-        <v>170.50639876048</v>
+        <v>65.96508953777985</v>
       </c>
       <c r="Y31" t="n">
-        <v>163.3813967235376</v>
+        <v>163.3813967235375</v>
       </c>
     </row>
     <row r="32">
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3199,13 +3199,13 @@
         <v>77.28915789329061</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373696</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H34" t="n">
         <v>80.78193823789549</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463136</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415216</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3284,7 +3284,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,10 +3314,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U35" t="n">
         <v>251.078595249801</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898722</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857175</v>
       </c>
       <c r="E37" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692856</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329064</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373698</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789552</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463139</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415219</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3481,16 +3481,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V37" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W37" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X37" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y37" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="38">
@@ -3521,7 +3521,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3661,25 +3661,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898714</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857166</v>
       </c>
       <c r="E40" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692848</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329055</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373689</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789543</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463131</v>
+        <v>42.2873553346313</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415211</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3752,13 +3752,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896921</v>
       </c>
       <c r="H41" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3898,25 +3898,25 @@
         <v>111.7000900522967</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898721</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857173</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692855</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329062</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373696</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H43" t="n">
-        <v>80.7819382378955</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463136</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415216</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -4074,7 +4074,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4135,25 +4135,25 @@
         <v>111.7000900522967</v>
       </c>
       <c r="C46" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898722</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857172</v>
+        <v>80.48358288857175</v>
       </c>
       <c r="E46" t="n">
-        <v>78.30207251692853</v>
+        <v>78.30207251692856</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329064</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373698</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789549</v>
+        <v>80.7819382378955</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463136</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415216</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1309.714918859356</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="C2" t="n">
-        <v>1309.714918859356</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="D2" t="n">
-        <v>1309.714918859356</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E2" t="n">
-        <v>1036.358670716696</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F2" t="n">
-        <v>625.3727659270879</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4328,19 +4328,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4367,13 +4367,13 @@
         <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>1309.714918859356</v>
+        <v>1332.978744901368</v>
       </c>
       <c r="X2" t="n">
-        <v>1309.714918859356</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="Y2" t="n">
-        <v>1309.714918859356</v>
+        <v>959.5129866402885</v>
       </c>
     </row>
     <row r="3">
@@ -4398,7 +4398,7 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4413,19 +4413,19 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4462,22 +4462,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>380.6911546495019</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>380.6911546495019</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>380.6911546495019</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>380.6911546495019</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>380.6911546495019</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>336.2769833124031</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>308.6274700262513</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>308.6274700262513</v>
       </c>
       <c r="V4" t="n">
-        <v>473.4444960005474</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W4" t="n">
-        <v>473.4444960005474</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X4" t="n">
-        <v>380.6911546495019</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y4" t="n">
-        <v>380.6911546495019</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4541,37 +4541,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1591.868758816787</v>
+        <v>1387.069036214947</v>
       </c>
       <c r="C5" t="n">
-        <v>1222.906241876376</v>
+        <v>1018.106519274536</v>
       </c>
       <c r="D5" t="n">
-        <v>864.6405432696254</v>
+        <v>1018.106519274536</v>
       </c>
       <c r="E5" t="n">
-        <v>478.8522906713811</v>
+        <v>632.3182666762915</v>
       </c>
       <c r="F5" t="n">
-        <v>67.86638588177355</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2682.99724448556</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2682.99724448556</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T5" t="n">
-        <v>2682.99724448556</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U5" t="n">
-        <v>2682.99724448556</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="V5" t="n">
-        <v>2351.934357141989</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="W5" t="n">
-        <v>2351.934357141989</v>
+        <v>1949.568281034341</v>
       </c>
       <c r="X5" t="n">
-        <v>1978.468598880909</v>
+        <v>1949.568281034341</v>
       </c>
       <c r="Y5" t="n">
-        <v>1978.468598880909</v>
+        <v>1773.668876279069</v>
       </c>
     </row>
     <row r="6">
@@ -4620,19 +4620,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424006</v>
@@ -4644,43 +4644,43 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2568.06040664989</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4729,43 +4729,43 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>343.360151857325</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W7" t="n">
-        <v>502.7251118619119</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X7" t="n">
-        <v>274.7355609638946</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
         <v>53.94298182036445</v>
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>768.2839875620907</v>
+        <v>1001.280783616703</v>
       </c>
       <c r="C8" t="n">
-        <v>399.321470621679</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="D8" t="n">
-        <v>399.321470621679</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="E8" t="n">
-        <v>74.81188663097703</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177355</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791251</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018221</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="T8" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="U8" t="n">
-        <v>2212.181128500977</v>
+        <v>2445.177924555589</v>
       </c>
       <c r="V8" t="n">
-        <v>1881.118241157406</v>
+        <v>2114.115037212019</v>
       </c>
       <c r="W8" t="n">
-        <v>1528.349585887292</v>
+        <v>1761.346381941905</v>
       </c>
       <c r="X8" t="n">
-        <v>1154.883827626212</v>
+        <v>1387.880623680825</v>
       </c>
       <c r="Y8" t="n">
-        <v>1154.883827626212</v>
+        <v>1387.880623680825</v>
       </c>
     </row>
     <row r="9">
@@ -4878,19 +4878,19 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>129.2001442204942</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641996</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598714</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>369.7691122461817</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="C10" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="D10" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="E10" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866326</v>
+        <v>110.2451748866325</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477909</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658208</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502498</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594899</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.128984206434</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.128984206434</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.128984206434</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.128984206434</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>500.8207968750357</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>500.8207968750357</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W10" t="n">
-        <v>597.7586631441991</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="X10" t="n">
-        <v>369.7691122461817</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="Y10" t="n">
-        <v>369.7691122461817</v>
+        <v>53.94298182036443</v>
       </c>
     </row>
     <row r="11">
@@ -5015,7 +5015,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
@@ -5024,7 +5024,7 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
         <v>904.3190116155888</v>
@@ -5048,19 +5048,19 @@
         <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
         <v>4860.854573014292</v>
@@ -5118,25 +5118,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277033</v>
+        <v>644.6755122555218</v>
       </c>
       <c r="L12" t="n">
-        <v>563.7235867775518</v>
+        <v>891.4406401619858</v>
       </c>
       <c r="M12" t="n">
-        <v>1332.091733170013</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N12" t="n">
-        <v>1661.954360834046</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136705</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,16 +5173,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>711.072954880832</v>
+        <v>97.21709146028596</v>
       </c>
       <c r="C13" t="n">
-        <v>542.1367719529251</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D13" t="n">
-        <v>392.0201325405893</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E13" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F13" t="n">
         <v>97.21709146028584</v>
@@ -5206,13 +5206,13 @@
         <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P13" t="n">
         <v>1460.082827585746</v>
@@ -5224,25 +5224,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1298.996260473454</v>
+        <v>1313.597763704656</v>
       </c>
       <c r="T13" t="n">
-        <v>1298.996260473454</v>
+        <v>1089.812348494162</v>
       </c>
       <c r="U13" t="n">
-        <v>1009.867621687013</v>
+        <v>800.6837097077203</v>
       </c>
       <c r="V13" t="n">
-        <v>1009.867621687013</v>
+        <v>545.9992215018334</v>
       </c>
       <c r="W13" t="n">
-        <v>1009.867621687013</v>
+        <v>545.9992215018334</v>
       </c>
       <c r="X13" t="n">
-        <v>781.8780707889953</v>
+        <v>318.0096706038161</v>
       </c>
       <c r="Y13" t="n">
-        <v>711.072954880832</v>
+        <v>97.21709146028596</v>
       </c>
     </row>
     <row r="14">
@@ -5252,34 +5252,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I14" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795207</v>
@@ -5309,19 +5309,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5355,19 +5355,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277033</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L15" t="n">
-        <v>901.674922584592</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.043068977054</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N15" t="n">
-        <v>1999.905696641086</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O15" t="n">
         <v>2331.418122136705</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>416.5712828402495</v>
+        <v>97.21709146028579</v>
       </c>
       <c r="C16" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D16" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
         <v>97.21709146028584</v>
@@ -5437,7 +5437,7 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
         <v>507.4972331799364</v>
@@ -5458,28 +5458,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1298.996260473455</v>
+        <v>1340.085404217832</v>
       </c>
       <c r="T16" t="n">
-        <v>1075.21084526296</v>
+        <v>1340.085404217832</v>
       </c>
       <c r="U16" t="n">
-        <v>933.9780037752275</v>
+        <v>1050.95676543139</v>
       </c>
       <c r="V16" t="n">
-        <v>933.9780037752275</v>
+        <v>796.2722772255034</v>
       </c>
       <c r="W16" t="n">
-        <v>644.5608337382669</v>
+        <v>506.8551071885428</v>
       </c>
       <c r="X16" t="n">
-        <v>416.5712828402495</v>
+        <v>278.8655562905255</v>
       </c>
       <c r="Y16" t="n">
-        <v>416.5712828402495</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="17">
@@ -5504,7 +5504,7 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H17" t="n">
         <v>179.8222783822462</v>
@@ -5513,19 +5513,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
         <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
@@ -5549,13 +5549,13 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
         <v>2814.921224614725</v>
@@ -5598,16 +5598,16 @@
         <v>287.7778528277033</v>
       </c>
       <c r="L18" t="n">
-        <v>534.5429807341673</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M18" t="n">
-        <v>1247.466478653857</v>
+        <v>1670.043068977053</v>
       </c>
       <c r="N18" t="n">
-        <v>2051.878056918008</v>
+        <v>1999.905696641086</v>
       </c>
       <c r="O18" t="n">
-        <v>2331.418122136705</v>
+        <v>2279.445761859783</v>
       </c>
       <c r="P18" t="n">
         <v>2536.440602918915</v>
@@ -5647,13 +5647,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>306.1124721890595</v>
+        <v>97.2170914602861</v>
       </c>
       <c r="C19" t="n">
-        <v>306.1124721890595</v>
+        <v>97.2170914602861</v>
       </c>
       <c r="D19" t="n">
-        <v>155.9958327767238</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
         <v>97.21709146028584</v>
@@ -5674,19 +5674,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N19" t="n">
-        <v>1049.608084974667</v>
+        <v>1049.608084974666</v>
       </c>
       <c r="O19" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P19" t="n">
         <v>1460.082827585746</v>
@@ -5695,28 +5695,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T19" t="n">
-        <v>1298.996260473455</v>
+        <v>964.1357418247856</v>
       </c>
       <c r="U19" t="n">
-        <v>1298.996260473455</v>
+        <v>869.3083006011509</v>
       </c>
       <c r="V19" t="n">
-        <v>1044.311772267568</v>
+        <v>614.6238123952641</v>
       </c>
       <c r="W19" t="n">
-        <v>754.894602230607</v>
+        <v>325.2066423583034</v>
       </c>
       <c r="X19" t="n">
-        <v>526.9050513325897</v>
+        <v>97.2170914602861</v>
       </c>
       <c r="Y19" t="n">
-        <v>306.1124721890595</v>
+        <v>97.2170914602861</v>
       </c>
     </row>
     <row r="20">
@@ -5741,7 +5741,7 @@
         <v>904.319011615589</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H20" t="n">
         <v>179.8222783822458</v>
@@ -5750,10 +5750,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5762,13 +5762,13 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
         <v>4801.62743720783</v>
@@ -5829,25 +5829,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K21" t="n">
-        <v>287.7778528277033</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L21" t="n">
-        <v>534.5429807341673</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M21" t="n">
-        <v>841.8631140141288</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N21" t="n">
-        <v>1646.274692278279</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O21" t="n">
-        <v>1925.814757496976</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P21" t="n">
-        <v>2446.115379232724</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5911,49 +5911,49 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799362</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S22" t="n">
-        <v>1313.886294955175</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>1090.100879744681</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U22" t="n">
-        <v>1090.100879744681</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="V22" t="n">
-        <v>835.416391538794</v>
+        <v>820.5263570570737</v>
       </c>
       <c r="W22" t="n">
-        <v>545.9992215018333</v>
+        <v>531.1091870201132</v>
       </c>
       <c r="X22" t="n">
-        <v>318.009670603816</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028584</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="23">
@@ -5963,13 +5963,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E23" t="n">
         <v>1315.304916405196</v>
@@ -5978,7 +5978,7 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H23" t="n">
         <v>179.8222783822462</v>
@@ -5987,7 +5987,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
         <v>889.2841917514082</v>
@@ -5999,16 +5999,16 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
         <v>4860.854573014292</v>
@@ -6020,19 +6020,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6066,22 +6066,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K24" t="n">
         <v>287.7778528277033</v>
       </c>
       <c r="L24" t="n">
-        <v>901.674922584592</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.043068977053</v>
+        <v>841.863114014129</v>
       </c>
       <c r="N24" t="n">
-        <v>1999.905696641086</v>
+        <v>1646.27469227828</v>
       </c>
       <c r="O24" t="n">
-        <v>2331.418122136705</v>
+        <v>2315.738453580939</v>
       </c>
       <c r="P24" t="n">
         <v>2536.440602918915</v>
@@ -6121,46 +6121,46 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028584</v>
+        <v>245.1301850426791</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028584</v>
+        <v>245.1301850426791</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028584</v>
+        <v>245.1301850426791</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688072</v>
+        <v>259.785188168807</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799362</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471187</v>
       </c>
       <c r="N25" t="n">
-        <v>1049.608084974667</v>
+        <v>1049.608084974666</v>
       </c>
       <c r="O25" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P25" t="n">
         <v>1460.082827585746</v>
@@ -6172,25 +6172,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1298.996260473455</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="T25" t="n">
-        <v>1090.100879744681</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U25" t="n">
-        <v>1090.100879744681</v>
+        <v>786.0822064765179</v>
       </c>
       <c r="V25" t="n">
-        <v>835.416391538794</v>
+        <v>786.0822064765179</v>
       </c>
       <c r="W25" t="n">
-        <v>545.9992215018333</v>
+        <v>647.571229016449</v>
       </c>
       <c r="X25" t="n">
-        <v>318.0096706038159</v>
+        <v>647.571229016449</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028584</v>
+        <v>426.7786498729189</v>
       </c>
     </row>
     <row r="26">
@@ -6215,22 +6215,22 @@
         <v>904.319011615589</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822458</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028562</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
@@ -6245,7 +6245,7 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
         <v>4860.854573014292</v>
@@ -6303,22 +6303,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>287.7778528277033</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L27" t="n">
-        <v>901.674922584592</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.043068977053</v>
+        <v>966.6932390011339</v>
       </c>
       <c r="N27" t="n">
-        <v>1999.905696641086</v>
+        <v>1346.676219880508</v>
       </c>
       <c r="O27" t="n">
-        <v>2331.418122136705</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P27" t="n">
         <v>2536.440602918915</v>
@@ -6358,13 +6358,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028584</v>
+        <v>245.130185042679</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028584</v>
+        <v>245.130185042679</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028584</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E28" t="n">
         <v>97.21709146028584</v>
@@ -6382,52 +6382,52 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241956</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688072</v>
+        <v>259.785188168807</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799362</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471187</v>
       </c>
       <c r="N28" t="n">
-        <v>1049.608084974667</v>
+        <v>1049.608084974666</v>
       </c>
       <c r="O28" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P28" t="n">
         <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557901</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557901</v>
       </c>
       <c r="S28" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557901</v>
       </c>
       <c r="T28" t="n">
-        <v>1075.210845262961</v>
+        <v>1275.130855347407</v>
       </c>
       <c r="U28" t="n">
-        <v>869.3083006011507</v>
+        <v>986.0022165609653</v>
       </c>
       <c r="V28" t="n">
-        <v>614.6238123952638</v>
+        <v>936.9883990534097</v>
       </c>
       <c r="W28" t="n">
-        <v>325.2066423583032</v>
+        <v>647.5712290164489</v>
       </c>
       <c r="X28" t="n">
-        <v>97.21709146028584</v>
+        <v>647.5712290164489</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028584</v>
+        <v>426.7786498729188</v>
       </c>
     </row>
     <row r="29">
@@ -6440,40 +6440,40 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F29" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
@@ -6482,28 +6482,28 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6540,28 +6540,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571609</v>
+        <v>549.598437470156</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636249</v>
+        <v>796.3635653766199</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643586</v>
+        <v>1103.683698656581</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.376451307619</v>
+        <v>1517.99338900868</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526316</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q30" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6595,19 +6595,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>439.5324299542194</v>
+        <v>600.4439501541566</v>
       </c>
       <c r="C31" t="n">
-        <v>326.3571123076833</v>
+        <v>487.2686325076206</v>
       </c>
       <c r="D31" t="n">
-        <v>301.7837761601164</v>
+        <v>392.9128583766558</v>
       </c>
       <c r="E31" t="n">
-        <v>209.6315478590944</v>
+        <v>300.7606300756337</v>
       </c>
       <c r="F31" t="n">
-        <v>209.6315478590944</v>
+        <v>209.6315478590943</v>
       </c>
       <c r="G31" t="n">
         <v>97.21709146028584</v>
@@ -6619,16 +6619,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>164.2510079864673</v>
+        <v>164.2510079864674</v>
       </c>
       <c r="K31" t="n">
-        <v>369.0876362933503</v>
+        <v>369.0876362933504</v>
       </c>
       <c r="L31" t="n">
-        <v>671.450905366751</v>
+        <v>671.4509053667513</v>
       </c>
       <c r="M31" t="n">
-        <v>997.6688721962054</v>
+        <v>997.6688721962057</v>
       </c>
       <c r="N31" t="n">
         <v>1322.864205286025</v>
@@ -6637,34 +6637,34 @@
         <v>1611.390407353693</v>
       </c>
       <c r="P31" t="n">
-        <v>1842.641396021647</v>
+        <v>1842.641396021648</v>
       </c>
       <c r="Q31" t="n">
-        <v>1936.126063056075</v>
+        <v>1936.126063056076</v>
       </c>
       <c r="R31" t="n">
-        <v>1880.811824899271</v>
+        <v>1936.126063056076</v>
       </c>
       <c r="S31" t="n">
-        <v>1736.652680096194</v>
+        <v>1791.966918252999</v>
       </c>
       <c r="T31" t="n">
-        <v>1568.62813016707</v>
+        <v>1623.942368323876</v>
       </c>
       <c r="U31" t="n">
-        <v>1335.260356662</v>
+        <v>1390.574594818805</v>
       </c>
       <c r="V31" t="n">
-        <v>1136.336733737484</v>
+        <v>1191.650971894289</v>
       </c>
       <c r="W31" t="n">
-        <v>902.680428981894</v>
+        <v>957.9946671386995</v>
       </c>
       <c r="X31" t="n">
-        <v>730.4517433652476</v>
+        <v>891.3632635651844</v>
       </c>
       <c r="Y31" t="n">
-        <v>565.4200295030882</v>
+        <v>726.3315497030253</v>
       </c>
     </row>
     <row r="32">
@@ -6674,22 +6674,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
         <v>179.8222783822463</v>
@@ -6698,52 +6698,52 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823804</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514099</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R32" t="n">
         <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="33">
@@ -6753,16 +6753,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>987.4312590525782</v>
+        <v>987.4312590525784</v>
       </c>
       <c r="C33" t="n">
-        <v>812.9782297714512</v>
+        <v>812.9782297714514</v>
       </c>
       <c r="D33" t="n">
-        <v>664.0438201101999</v>
+        <v>664.0438201102002</v>
       </c>
       <c r="E33" t="n">
-        <v>504.8063651047445</v>
+        <v>504.8063651047446</v>
       </c>
       <c r="F33" t="n">
         <v>358.2718071316295</v>
@@ -6777,22 +6777,22 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277032</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636249</v>
+        <v>901.6749225845919</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643587</v>
+        <v>1208.995055864553</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.376451307619</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P33" t="n">
         <v>2328.464088060424</v>
@@ -6813,7 +6813,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V33" t="n">
-        <v>1825.495751771334</v>
+        <v>1825.495751771335</v>
       </c>
       <c r="W33" t="n">
         <v>1571.258395043133</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108333</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506725</v>
+        <v>478.0475988506728</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504511</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103128</v>
+        <v>221.529509210313</v>
       </c>
       <c r="H34" t="n">
         <v>139.9315917982973</v>
@@ -6856,13 +6856,13 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K34" t="n">
         <v>394.6863306254957</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649689</v>
+        <v>709.848946864969</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
@@ -6889,7 +6889,7 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U34" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V34" t="n">
         <v>1304.027639859417</v>
@@ -6898,10 +6898,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045208</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010317</v>
+        <v>772.2886129010319</v>
       </c>
     </row>
     <row r="35">
@@ -6911,13 +6911,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
@@ -6926,40 +6926,40 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823804</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514099</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
         <v>4726.561275231264</v>
@@ -6968,19 +6968,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -6990,16 +6990,16 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>987.4312590525782</v>
+        <v>987.4312590525784</v>
       </c>
       <c r="C36" t="n">
-        <v>812.9782297714512</v>
+        <v>812.9782297714514</v>
       </c>
       <c r="D36" t="n">
-        <v>664.0438201101999</v>
+        <v>664.0438201102002</v>
       </c>
       <c r="E36" t="n">
-        <v>504.8063651047445</v>
+        <v>504.8063651047446</v>
       </c>
       <c r="F36" t="n">
         <v>358.2718071316295</v>
@@ -7011,28 +7011,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277032</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341671</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643587</v>
+        <v>1016.813592216476</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.376451307619</v>
+        <v>1346.676219880509</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526316</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P36" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7050,7 +7050,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V36" t="n">
-        <v>1825.495751771334</v>
+        <v>1825.495751771335</v>
       </c>
       <c r="W36" t="n">
         <v>1571.258395043133</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.460239110833</v>
+        <v>659.4602391108334</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229671</v>
+        <v>559.3441472229675</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506724</v>
+        <v>478.0475988506728</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083207</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504514</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103129</v>
+        <v>221.529509210313</v>
       </c>
       <c r="H37" t="n">
         <v>139.9315917982973</v>
@@ -7093,13 +7093,13 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
-        <v>177.0503551525401</v>
+        <v>177.0503551525398</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254959</v>
+        <v>394.6863306254954</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649689</v>
       </c>
       <c r="M37" t="n">
         <v>1048.866260860496</v>
@@ -7117,28 +7117,28 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R37" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S37" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942115</v>
       </c>
       <c r="T37" t="n">
-        <v>1710.200584771663</v>
+        <v>1710.200584771662</v>
       </c>
       <c r="U37" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V37" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W37" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045206</v>
+        <v>924.2611010045212</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010316</v>
+        <v>772.2886129010321</v>
       </c>
     </row>
     <row r="38">
@@ -7163,40 +7163,40 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823804</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514099</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
         <v>4726.561275231264</v>
@@ -7227,16 +7227,16 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>987.4312590525782</v>
+        <v>987.4312590525784</v>
       </c>
       <c r="C39" t="n">
-        <v>812.9782297714512</v>
+        <v>812.9782297714514</v>
       </c>
       <c r="D39" t="n">
-        <v>664.0438201101999</v>
+        <v>664.0438201102002</v>
       </c>
       <c r="E39" t="n">
-        <v>504.8063651047445</v>
+        <v>504.8063651047446</v>
       </c>
       <c r="F39" t="n">
         <v>358.2718071316295</v>
@@ -7248,28 +7248,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>410.8745301331637</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636249</v>
+        <v>1024.771599890052</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643587</v>
+        <v>1332.091733170014</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.376451307619</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136706</v>
       </c>
       <c r="P39" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7287,7 +7287,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V39" t="n">
-        <v>1825.495751771334</v>
+        <v>1825.495751771335</v>
       </c>
       <c r="W39" t="n">
         <v>1571.258395043133</v>
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108333</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229675</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506727</v>
+        <v>478.0475988506729</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083207</v>
+        <v>398.9545963083209</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504514</v>
+        <v>320.8847398504516</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103131</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H40" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
         <v>177.0503551525399</v>
@@ -7336,7 +7336,7 @@
         <v>394.6863306254957</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
@@ -7351,7 +7351,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q40" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R40" t="n">
         <v>1996.265827986523</v>
@@ -7366,16 +7366,16 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V40" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W40" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045205</v>
+        <v>924.261101004521</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010319</v>
       </c>
     </row>
     <row r="41">
@@ -7385,34 +7385,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795207</v>
@@ -7424,37 +7424,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q41" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T41" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="42">
@@ -7485,31 +7485,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701562</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636249</v>
+        <v>1163.495507227045</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643587</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.376451307619</v>
+        <v>1843.901542059517</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P42" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7543,19 +7543,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108333</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229674</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506727</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083207</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504514</v>
+        <v>320.884739850451</v>
       </c>
       <c r="G43" t="n">
         <v>221.529509210313</v>
@@ -7570,10 +7570,10 @@
         <v>177.05035515254</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254953</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649689</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
@@ -7591,7 +7591,7 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R43" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S43" t="n">
         <v>1865.165908942116</v>
@@ -7609,10 +7609,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010319</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="44">
@@ -7661,13 +7661,13 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R44" t="n">
         <v>4860.854573014292</v>
@@ -7713,13 +7713,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G45" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H45" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I45" t="n">
         <v>97.21709146028584</v>
@@ -7728,22 +7728,22 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M45" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526316</v>
+        <v>2227.840212610279</v>
       </c>
       <c r="P45" t="n">
-        <v>2328.464088060424</v>
+        <v>2432.862693392489</v>
       </c>
       <c r="Q45" t="n">
         <v>2623.573505376138</v>
@@ -7780,43 +7780,43 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108326</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229667</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506721</v>
+        <v>478.0475988506724</v>
       </c>
       <c r="E46" t="n">
-        <v>398.95459630832</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504507</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G46" t="n">
-        <v>221.5295092103124</v>
+        <v>221.5295092103128</v>
       </c>
       <c r="H46" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
-        <v>177.0503551525397</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254954</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649689</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M46" t="n">
         <v>1048.866260860496</v>
       </c>
       <c r="N46" t="n">
-        <v>1386.860941116387</v>
+        <v>1386.860941116388</v>
       </c>
       <c r="O46" t="n">
         <v>1688.186490350129</v>
@@ -7828,28 +7828,28 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R46" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S46" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T46" t="n">
         <v>1710.200584771663</v>
       </c>
       <c r="U46" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V46" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W46" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045202</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010312</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
   </sheetData>
@@ -8061,7 +8061,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050814</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747121</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951781</v>
+        <v>90.64146763747119</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8532,7 +8532,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142018</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8541,7 +8541,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>359.906554245176</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8766,28 +8766,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>234.4116509503169</v>
       </c>
       <c r="L12" t="n">
-        <v>29.47535963978231</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>34.78428385445218</v>
@@ -9003,22 +9003,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>465.7050637499999</v>
+        <v>283.6093329825492</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
-        <v>52.49733361305249</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -9027,7 +9027,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9246,19 +9246,19 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>409.7003683229582</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>52.497333613053</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -9480,13 +9480,13 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>145.2351313103794</v>
       </c>
       <c r="N21" t="n">
         <v>479.3423743435536</v>
@@ -9495,13 +9495,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>91.23759968302141</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9638,7 +9638,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711646</v>
       </c>
       <c r="L23" t="n">
         <v>417.6612145504504</v>
@@ -9659,7 +9659,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9720,25 +9720,25 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
-        <v>52.49733361305277</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>15.83804904622852</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9951,31 +9951,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>50.62661940943605</v>
       </c>
       <c r="O27" t="n">
-        <v>52.49733361305277</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10188,7 +10188,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
@@ -10200,19 +10200,19 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>85.30006332127886</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10346,7 +10346,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720756</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
@@ -10425,31 +10425,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>308.1251096272043</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445217</v>
+        <v>34.7842838544522</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10583,7 +10583,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720756</v>
       </c>
       <c r="K35" t="n">
         <v>324.1454125711647</v>
@@ -10592,7 +10592,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928324</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10662,31 +10662,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>176.7176547498459</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776752</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445217</v>
+        <v>34.7842838544522</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10820,7 +10820,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720756</v>
       </c>
       <c r="K38" t="n">
         <v>324.1454125711647</v>
@@ -10829,7 +10829,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928324</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10899,13 +10899,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>124.3400780863237</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10914,16 +10914,16 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445217</v>
+        <v>34.7842838544522</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11078,7 +11078,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599049</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11136,16 +11136,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>43.65987261462419</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -11154,13 +11154,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>277.6717966208064</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11318,7 +11318,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298105</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11388,16 +11388,16 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>104.6241510367939</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23416,16 +23416,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
@@ -23464,16 +23464,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>14.45548819889004</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>148.4875886030131</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23650,10 +23650,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23668,7 +23668,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
         <v>110.419245464272</v>
@@ -23698,19 +23698,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>150.6426047107266</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>146.4168393257218</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23893,10 +23893,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>88.2430087432956</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23935,16 +23935,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>192.3581855871791</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24142,7 +24142,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675362</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
         <v>110.419245464272</v>
@@ -24175,7 +24175,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>14.74113413690372</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24190,7 +24190,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>194.5731143188405</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24370,19 +24370,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>166.4935684633777</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>148.9138283675362</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>110.4192454642721</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24415,19 +24415,19 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>14.74113413690327</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>149.397130651123</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24598,7 +24598,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24607,19 +24607,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>166.4935684633777</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>148.9138283675362</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>110.4192454642721</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,28 +24646,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>109.9643524037929</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836033</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>82.39383318338545</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>203.6139639913478</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24841,22 +24841,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>69.08461360356399</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>90.21779139437412</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>93.710571738979</v>
+        <v>93.71057173897887</v>
       </c>
       <c r="I31" t="n">
-        <v>55.21598883571487</v>
+        <v>55.21598883571475</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>54.76109577523555</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24901,7 +24901,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>104.5413092227001</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>764342.0273979418</v>
+        <v>764342.0273979417</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>764342.0273979418</v>
+        <v>764342.0273979417</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>801376.4952673643</v>
+        <v>801376.4952673644</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>801376.4952673643</v>
+        <v>801376.4952673644</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>801376.4952673643</v>
+        <v>801376.4952673644</v>
       </c>
     </row>
     <row r="15">
@@ -26314,43 +26314,43 @@
         <v>656833.4158914268</v>
       </c>
       <c r="C2" t="n">
-        <v>656833.4158914265</v>
+        <v>656833.4158914264</v>
       </c>
       <c r="D2" t="n">
-        <v>656833.4158914265</v>
+        <v>656833.4158914267</v>
       </c>
       <c r="E2" t="n">
         <v>625646.495580334</v>
       </c>
       <c r="F2" t="n">
+        <v>625646.495580334</v>
+      </c>
+      <c r="G2" t="n">
         <v>625646.4955803341</v>
       </c>
-      <c r="G2" t="n">
-        <v>625646.4955803336</v>
-      </c>
       <c r="H2" t="n">
+        <v>625646.4955803339</v>
+      </c>
+      <c r="I2" t="n">
         <v>625646.495580334</v>
       </c>
-      <c r="I2" t="n">
-        <v>625646.4955803339</v>
-      </c>
       <c r="J2" t="n">
-        <v>625646.4955803341</v>
+        <v>625646.495580334</v>
       </c>
       <c r="K2" t="n">
-        <v>650915.4197524313</v>
+        <v>650915.4197524312</v>
       </c>
       <c r="L2" t="n">
         <v>656833.415891427</v>
       </c>
       <c r="M2" t="n">
+        <v>656833.415891427</v>
+      </c>
+      <c r="N2" t="n">
+        <v>656833.4158914268</v>
+      </c>
+      <c r="O2" t="n">
         <v>656833.4158914264</v>
-      </c>
-      <c r="N2" t="n">
-        <v>656833.415891427</v>
-      </c>
-      <c r="O2" t="n">
-        <v>656833.415891427</v>
       </c>
       <c r="P2" t="n">
         <v>656833.415891427</v>
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.0364768964</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,7 +26384,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.273736754432321e-11</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>176423.2191925929</v>
@@ -26393,19 +26393,19 @@
         <v>44162.6053028457</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086681</v>
+        <v>10342.90680086671</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338371</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1.855446498666424e-10</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.60530284571</v>
+        <v>44162.60530284584</v>
       </c>
     </row>
     <row r="4">
@@ -26427,10 +26427,10 @@
         <v>22174.60758687071</v>
       </c>
       <c r="F4" t="n">
-        <v>22174.60758687072</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="G4" t="n">
-        <v>22174.6075868707</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="H4" t="n">
         <v>22174.60758687071</v>
@@ -26442,22 +26442,22 @@
         <v>22174.60758687071</v>
       </c>
       <c r="K4" t="n">
-        <v>40339.23010106727</v>
+        <v>40339.23010106737</v>
       </c>
       <c r="L4" t="n">
-        <v>44593.39482819119</v>
+        <v>44593.3948281912</v>
       </c>
       <c r="M4" t="n">
         <v>44593.39482819119</v>
       </c>
       <c r="N4" t="n">
-        <v>44593.39482819119</v>
+        <v>44593.39482819122</v>
       </c>
       <c r="O4" t="n">
-        <v>44593.39482819119</v>
+        <v>44593.39482819116</v>
       </c>
       <c r="P4" t="n">
-        <v>44593.39482819118</v>
+        <v>44593.39482819116</v>
       </c>
     </row>
     <row r="5">
@@ -26473,19 +26473,19 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340944</v>
       </c>
       <c r="E5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
         <v>91987.32594871662</v>
@@ -26494,19 +26494,19 @@
         <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
-        <v>96628.20853022279</v>
+        <v>96628.20853022281</v>
       </c>
       <c r="L5" t="n">
         <v>97715.1058200254</v>
       </c>
       <c r="M5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="N5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="O5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="P5" t="n">
         <v>97715.10582002539</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-181626.4091730514</v>
+        <v>-181626.4091730515</v>
       </c>
       <c r="C6" t="n">
-        <v>408341.4700414927</v>
+        <v>408341.4700414926</v>
       </c>
       <c r="D6" t="n">
-        <v>408341.4700414926</v>
+        <v>408341.4700414931</v>
       </c>
       <c r="E6" t="n">
-        <v>-13675.47443214949</v>
+        <v>-13772.93355812189</v>
       </c>
       <c r="F6" t="n">
-        <v>511484.5620447468</v>
+        <v>511387.1029187745</v>
       </c>
       <c r="G6" t="n">
-        <v>511484.5620447464</v>
+        <v>511387.1029187746</v>
       </c>
       <c r="H6" t="n">
-        <v>511484.5620447467</v>
+        <v>511387.1029187744</v>
       </c>
       <c r="I6" t="n">
-        <v>511484.5620447466</v>
+        <v>511387.1029187746</v>
       </c>
       <c r="J6" t="n">
-        <v>335061.3428521539</v>
+        <v>334963.8837261816</v>
       </c>
       <c r="K6" t="n">
-        <v>469785.3758182956</v>
+        <v>469766.882080361</v>
       </c>
       <c r="L6" t="n">
         <v>504182.0084423436</v>
       </c>
       <c r="M6" t="n">
-        <v>379723.9000093727</v>
+        <v>379723.9000093732</v>
       </c>
       <c r="N6" t="n">
-        <v>514524.9152432104</v>
+        <v>514524.9152432102</v>
       </c>
       <c r="O6" t="n">
-        <v>514524.9152432104</v>
+        <v>514524.9152432096</v>
       </c>
       <c r="P6" t="n">
-        <v>470362.3099403647</v>
+        <v>470362.3099403646</v>
       </c>
     </row>
   </sheetData>
@@ -26710,22 +26710,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855713</v>
+        <v>55.20325662855725</v>
       </c>
       <c r="L2" t="n">
         <v>68.13189012964064</v>
       </c>
       <c r="M2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="N2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
     </row>
     <row r="3">
@@ -26735,49 +26735,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170864</v>
       </c>
       <c r="E3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
     </row>
     <row r="4">
@@ -26793,7 +26793,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545554</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26926,16 +26926,16 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855713</v>
+        <v>55.20325662855733</v>
       </c>
       <c r="L2" t="n">
-        <v>12.92863350108351</v>
+        <v>12.92863350108339</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855714</v>
+        <v>55.20325662855731</v>
       </c>
     </row>
     <row r="3">
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370138</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26996,7 +26996,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990173</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27163,13 +27163,13 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855713</v>
+        <v>55.20325662855733</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27385,16 +27385,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>111.3076844110284</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27439,10 +27439,10 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>23.03118778159279</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27549,16 +27549,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,16 +27579,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>197.662087304794</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
@@ -27600,7 +27600,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>133.8838474515021</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27619,7 +27619,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27634,7 +27634,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,28 +27661,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>40.46807450747573</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>212.0975279483342</v>
       </c>
     </row>
     <row r="6">
@@ -27795,7 +27795,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,28 +27819,28 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>130.3958356744437</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>63.37316471551392</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27859,19 +27859,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>60.66588192146685</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,13 +27901,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>56.25111528509538</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -28011,7 +28011,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28020,7 +28020,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28029,10 +28029,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853703</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,7 +28053,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491434</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -28062,19 +28062,19 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>96.25160475629443</v>
       </c>
       <c r="W10" t="n">
-        <v>157.4563804849782</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28345,7 +28345,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28615,7 +28615,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>-1.4210854715202e-13</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -29524,7 +29524,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855713</v>
+        <v>55.20325662855725</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855713</v>
+        <v>55.20325662855725</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855713</v>
+        <v>55.20325662855725</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855713</v>
+        <v>55.20325662855725</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855713</v>
+        <v>55.20325662855725</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855713</v>
+        <v>55.20325662855725</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855713</v>
+        <v>55.20325662855725</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855713</v>
+        <v>55.20325662855725</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855713</v>
+        <v>55.20325662855725</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855713</v>
+        <v>55.20325662855725</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855713</v>
+        <v>55.20325662855725</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855713</v>
+        <v>55.20325662855725</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855713</v>
+        <v>55.20325662855725</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855713</v>
+        <v>55.20325662855725</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855713</v>
+        <v>55.20325662855725</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855713</v>
+        <v>55.20325662855725</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855713</v>
+        <v>55.20325662855725</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855713</v>
+        <v>55.20325662855725</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855713</v>
+        <v>55.20325662855725</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855713</v>
+        <v>55.20325662855725</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855713</v>
+        <v>55.20325662855725</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855713</v>
+        <v>55.20325662855725</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855713</v>
+        <v>55.20325662855725</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855713</v>
+        <v>55.20325662855725</v>
       </c>
     </row>
     <row r="32">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
     </row>
     <row r="41">
@@ -30478,7 +30478,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
     </row>
   </sheetData>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31513,46 +31513,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554463</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727436</v>
+        <v>128.8865178727435</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081576</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630668</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405366</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338302</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119864</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954665</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044136</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633791</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.6043567772738</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473549</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141104</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188909</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.97441286890687</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396472</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649101</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478006</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983121</v>
       </c>
       <c r="N9" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736699</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923046</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479576</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639064</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034978</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372663</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619149</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078606</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644438</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492003</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813575</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302234</v>
       </c>
       <c r="L10" t="n">
-        <v>101.2724571246924</v>
+        <v>101.2724571246923</v>
       </c>
       <c r="M10" t="n">
-        <v>106.777606591725</v>
+        <v>106.7776065917249</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666594</v>
+        <v>104.2386737666593</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175838</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383795</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678004</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701162</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695336</v>
+        <v>11.87105908695335</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197222</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315608</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31987,16 +31987,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32005,7 +32005,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32014,7 +32014,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32023,7 +32023,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32066,7 +32066,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32075,7 +32075,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32084,10 +32084,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32102,10 +32102,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32166,7 +32166,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32178,16 +32178,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32461,16 +32461,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32479,7 +32479,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32488,7 +32488,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32497,7 +32497,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32540,7 +32540,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32549,7 +32549,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32558,10 +32558,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32576,10 +32576,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32640,7 +32640,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32652,16 +32652,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,16 +32698,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32716,7 +32716,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32725,7 +32725,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32734,7 +32734,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,7 +32777,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32786,7 +32786,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32795,10 +32795,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32813,10 +32813,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32877,7 +32877,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32889,16 +32889,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,16 +32935,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32953,7 +32953,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32962,7 +32962,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32971,7 +32971,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,7 +33014,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33023,7 +33023,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33032,10 +33032,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33050,10 +33050,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33114,7 +33114,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33126,16 +33126,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33181,40 +33181,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L29" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M29" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R29" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U29" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33254,10 +33254,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J30" t="n">
         <v>168.7478056215733</v>
@@ -33266,7 +33266,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M30" t="n">
         <v>452.5584109724845</v>
@@ -33275,10 +33275,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P30" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q30" t="n">
         <v>227.9948068710956</v>
@@ -33290,7 +33290,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33336,7 +33336,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
@@ -33354,7 +33354,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P31" t="n">
         <v>181.1050413469073</v>
@@ -33366,10 +33366,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U31" t="n">
         <v>0.08167695791351813</v>
@@ -33409,49 +33409,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L32" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R32" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U32" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,34 +33488,34 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P33" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q33" t="n">
         <v>227.9948068710956</v>
@@ -33524,10 +33524,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33573,7 +33573,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
@@ -33588,10 +33588,10 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P34" t="n">
         <v>181.1050413469073</v>
@@ -33600,16 +33600,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33646,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L35" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R35" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U35" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,34 +33725,34 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P36" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q36" t="n">
         <v>227.9948068710956</v>
@@ -33761,10 +33761,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33810,7 +33810,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
@@ -33825,10 +33825,10 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P37" t="n">
         <v>181.1050413469073</v>
@@ -33837,16 +33837,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L38" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R38" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U38" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,34 +33962,34 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P39" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q39" t="n">
         <v>227.9948068710956</v>
@@ -33998,10 +33998,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34047,7 +34047,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
@@ -34062,10 +34062,10 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P40" t="n">
         <v>181.1050413469073</v>
@@ -34074,16 +34074,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34123,7 +34123,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I41" t="n">
         <v>128.6967545176652</v>
@@ -34132,31 +34132,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L41" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P41" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R41" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34205,31 +34205,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J42" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P42" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R42" t="n">
         <v>110.8952201095118</v>
@@ -34284,7 +34284,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
@@ -34296,7 +34296,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M43" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N43" t="n">
         <v>229.1447054263751</v>
@@ -34308,19 +34308,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34360,7 +34360,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I44" t="n">
         <v>128.6967545176652</v>
@@ -34369,31 +34369,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L44" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P44" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R44" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34442,31 +34442,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J45" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P45" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R45" t="n">
         <v>110.8952201095118</v>
@@ -34521,7 +34521,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
@@ -34533,7 +34533,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M46" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N46" t="n">
         <v>229.1447054263751</v>
@@ -34545,19 +34545,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R46" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730079</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35024,16 +35024,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730631</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35173,25 +35173,25 @@
         <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.2230414343418</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.53613944353</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060963</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492235</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.563508753045</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116796</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898689</v>
+        <v>153.9975062898688</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770686</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047529</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713856</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262937</v>
       </c>
       <c r="N9" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>173.811094813734</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,22 +35331,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713948</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
       </c>
       <c r="M10" t="n">
-        <v>146.3614835535656</v>
+        <v>146.3614835535655</v>
       </c>
       <c r="N10" t="n">
-        <v>148.370846145888</v>
+        <v>148.3708461458879</v>
       </c>
       <c r="O10" t="n">
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873144</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879392</v>
+        <v>384.9870895382561</v>
       </c>
       <c r="L12" t="n">
-        <v>278.7330645958066</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N12" t="n">
         <v>333.1945733980128</v>
       </c>
       <c r="O12" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35647,13 +35647,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35668,7 +35668,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>776.1294408004662</v>
+        <v>594.0337100330154</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O15" t="n">
-        <v>334.8610358541607</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.01303278507413</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,10 +35802,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35817,13 +35817,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35966,19 +35966,19 @@
         <v>150.5754385879392</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M18" t="n">
-        <v>720.1247453734244</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315246</v>
+        <v>259.5907485445777</v>
       </c>
       <c r="Q18" t="n">
         <v>88.0130327850741</v>
@@ -36121,13 +36121,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36142,7 +36142,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K21" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504662</v>
+        <v>455.6595083608457</v>
       </c>
       <c r="N21" t="n">
-        <v>812.5369477415663</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q21" t="n">
-        <v>179.2506324680955</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556549</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36291,13 +36291,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36358,13 +36358,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36379,7 +36379,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349858</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K24" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L24" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O24" t="n">
-        <v>334.8610358541609</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315246</v>
+        <v>222.9314639777532</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556545</v>
       </c>
       <c r="K25" t="n">
         <v>151.7024285299105</v>
@@ -36534,7 +36534,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,13 +36595,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36616,7 +36616,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L27" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980128</v>
+        <v>383.821192807449</v>
       </c>
       <c r="O27" t="n">
-        <v>334.8610358541609</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q27" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556545</v>
       </c>
       <c r="K28" t="n">
         <v>151.7024285299105</v>
@@ -36771,7 +36771,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M29" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,31 +36908,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490663</v>
       </c>
       <c r="K30" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980128</v>
+        <v>418.4946367192916</v>
       </c>
       <c r="O30" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>10.73738595686862</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412265</v>
+        <v>67.71102679412274</v>
       </c>
       <c r="K31" t="n">
-        <v>206.9056851584677</v>
+        <v>206.9056851584678</v>
       </c>
       <c r="L31" t="n">
-        <v>305.4174435084856</v>
+        <v>305.4174435084857</v>
       </c>
       <c r="M31" t="n">
         <v>329.5130978075297</v>
       </c>
       <c r="N31" t="n">
-        <v>328.4801344341607</v>
+        <v>328.4801344341608</v>
       </c>
       <c r="O31" t="n">
         <v>291.44060814916</v>
       </c>
       <c r="P31" t="n">
-        <v>233.5868572403579</v>
+        <v>233.586857240358</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043187</v>
+        <v>94.42895660043197</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415096</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,25 +37145,25 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490663</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980129</v>
+        <v>641.319683025217</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
@@ -37224,19 +37224,19 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520614</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
       </c>
       <c r="L34" t="n">
-        <v>318.3460770095692</v>
+        <v>318.3460770095691</v>
       </c>
       <c r="M34" t="n">
-        <v>342.4417313086132</v>
+        <v>342.441731308613</v>
       </c>
       <c r="N34" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O34" t="n">
         <v>304.3692416502435</v>
@@ -37303,31 +37303,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415096</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M35" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490663</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504663</v>
+        <v>487.1420318003121</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975091999</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507407</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,28 +37461,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520611</v>
       </c>
       <c r="K37" t="n">
-        <v>219.8343186595512</v>
+        <v>219.8343186595511</v>
       </c>
       <c r="L37" t="n">
-        <v>318.3460770095692</v>
+        <v>318.3460770095691</v>
       </c>
       <c r="M37" t="n">
-        <v>342.4417313086132</v>
+        <v>342.441731308613</v>
       </c>
       <c r="N37" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O37" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502434</v>
       </c>
       <c r="P37" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414413</v>
       </c>
       <c r="Q37" t="n">
-        <v>107.3575901015154</v>
+        <v>107.3575901015153</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,31 +37540,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415096</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M38" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490663</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005178</v>
+        <v>274.9155166742629</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507407</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37707,13 +37707,13 @@
         <v>318.3460770095692</v>
       </c>
       <c r="M40" t="n">
-        <v>342.4417313086132</v>
+        <v>342.4417313086131</v>
       </c>
       <c r="N40" t="n">
         <v>341.4087679352443</v>
       </c>
       <c r="O40" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P40" t="n">
         <v>246.5154907414415</v>
@@ -37783,25 +37783,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502051</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,16 +37856,16 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504663</v>
+        <v>354.0842496650906</v>
       </c>
       <c r="N42" t="n">
         <v>333.1945733980129</v>
@@ -37874,13 +37874,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>484.7652115523311</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520616</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -37950,10 +37950,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O43" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P43" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q43" t="n">
         <v>107.3575901015154</v>
@@ -38020,25 +38020,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N44" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,25 +38096,25 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N45" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209232</v>
+        <v>192.637183821868</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520616</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
